--- a/Temp/住宅資金計画.xlsx
+++ b/Temp/住宅資金計画.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SITH-YN\PythonTool\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE2FE9-2719-42ED-9919-DEB7228A7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B7175-4CC2-46A9-A815-D44DC03B9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="900" windowWidth="23535" windowHeight="14520" xr2:uid="{81B6A737-5C61-495C-A201-6EC21A384CE9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>車（保険/車検/点検）</t>
     <rPh sb="0" eb="1">
@@ -345,6 +345,330 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学校1年</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学校6年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学校1年</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校1年</t>
+    <rPh sb="0" eb="2">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校3年</t>
+    <rPh sb="0" eb="2">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高卒後</t>
+    <rPh sb="0" eb="3">
+      <t>コウソツゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学校3年</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年で45～55万必要</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月の貯金</t>
+    <rPh sb="0" eb="2">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学費以外の予備資金</t>
+    <rPh sb="0" eb="4">
+      <t>ガクヒイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨビシキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月2万円</t>
+    <rPh sb="0" eb="2">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート収入8万円</t>
+    <rPh sb="3" eb="5">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学校中学年まではパート前提</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウガクネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以後は正社員に切り替える前提</t>
+    <rPh sb="2" eb="4">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイシャイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以降は正社員で15万収入</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイシャイン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>マンシュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あおと小学校3年生まではパート月8万円</t>
+    <rPh sb="3" eb="6">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひろと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あおと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年少</t>
+    <rPh sb="0" eb="2">
+      <t>ネンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月</t>
+    <rPh sb="0" eb="2">
+      <t>マイツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年中</t>
+    <rPh sb="0" eb="2">
+      <t>ネンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年長</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6年生</t>
+    <rPh sb="1" eb="3">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住宅修繕貯金</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウタクシュウゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家財貯金</t>
+    <rPh sb="0" eb="2">
+      <t>カザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年単位支払い（車の税金/メンテ/保険）</t>
+    <rPh sb="0" eb="3">
+      <t>ネンタンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼイキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住宅維持費（税金/火災保険/町内会/消雪パイプ）</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウタクイジヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼイキン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カサイホケン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョウナイカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1304853-F355-442A-9F42-52F1ADE83CE4}">
-  <dimension ref="B5:Q41"/>
+  <dimension ref="B5:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -840,6 +1164,9 @@
         <f>F10*0.7</f>
         <v>5600000</v>
       </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D11" s="3"/>
@@ -854,6 +1181,9 @@
         <f>F11*0.7</f>
         <v>11900000</v>
       </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
@@ -916,7 +1246,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D17" s="3"/>
       <c r="E17" t="s">
         <v>34</v>
@@ -925,7 +1255,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D18" s="3"/>
       <c r="E18" t="s">
         <v>35</v>
@@ -934,7 +1264,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D19" s="3"/>
       <c r="E19" t="s">
         <v>36</v>
@@ -942,8 +1272,11 @@
       <c r="F19" s="2">
         <v>55000</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D20" s="3"/>
       <c r="E20" t="s">
         <v>37</v>
@@ -952,7 +1285,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D21" s="3"/>
       <c r="E21" t="s">
         <v>38</v>
@@ -967,7 +1300,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D22" s="3"/>
       <c r="E22" t="s">
         <v>39</v>
@@ -975,8 +1308,20 @@
       <c r="F22" s="2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D23" s="3"/>
       <c r="E23" t="s">
         <v>40</v>
@@ -984,8 +1329,22 @@
       <c r="F23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="O23">
+        <f>P23/12</f>
+        <v>26666.666666666668</v>
+      </c>
+      <c r="P23">
+        <v>320000</v>
+      </c>
+      <c r="Q23">
+        <f>P23*6</f>
+        <v>1920000</v>
+      </c>
+      <c r="T23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1352,14 @@
         <v>1000000</v>
       </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>41</v>
       </c>
@@ -1002,8 +1367,15 @@
         <v>450000</v>
       </c>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="P25">
+        <v>540000</v>
+      </c>
+      <c r="Q25">
+        <f>P25*3</f>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D26" s="3"/>
       <c r="E26" t="s">
         <v>2</v>
@@ -1011,8 +1383,14 @@
       <c r="F26" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="P26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D27" s="3"/>
       <c r="E27" t="s">
         <v>3</v>
@@ -1020,8 +1398,15 @@
       <c r="F27" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="P27">
+        <v>510000</v>
+      </c>
+      <c r="Q27">
+        <f>P27*3</f>
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D28" s="3"/>
       <c r="E28" t="s">
         <v>5</v>
@@ -1029,8 +1414,11 @@
       <c r="F28" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="Q28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D29" s="3"/>
       <c r="E29" t="s">
         <v>10</v>
@@ -1038,8 +1426,11 @@
       <c r="F29" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="Q29">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1445,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1459,11 @@
       <c r="J31" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>9</v>
       </c>
@@ -1084,10 +1478,20 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.4">
       <c r="D33" s="3"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -1104,7 +1508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -1137,8 +1541,32 @@
       <c r="G38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>21</v>
       </c>
@@ -1154,8 +1582,25 @@
       <c r="G39" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q39">
+        <v>80000</v>
+      </c>
+      <c r="R39">
+        <f>Q39*12</f>
+        <v>960000</v>
+      </c>
+      <c r="S39">
+        <f>20000*12</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -1171,8 +1616,25 @@
       <c r="G40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q40">
+        <v>80000</v>
+      </c>
+      <c r="R40">
+        <f>Q40*12</f>
+        <v>960000</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ref="S40:S53" si="0">20000*12</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>13</v>
       </c>
@@ -1187,6 +1649,242 @@
       </c>
       <c r="G41" t="s">
         <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41">
+        <v>80000</v>
+      </c>
+      <c r="R41">
+        <f>Q41*12</f>
+        <v>960000</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42">
+        <v>80000</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R53" si="1">Q42*12</f>
+        <v>960000</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43">
+        <v>80000</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>960000</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q44">
+        <v>80000</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>960000</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45">
+        <v>150000</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46">
+        <v>150000</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47">
+        <v>150000</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q48">
+        <v>150000</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="49" spans="15:19" x14ac:dyDescent="0.4">
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q49">
+        <v>150000</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="50" spans="15:19" x14ac:dyDescent="0.4">
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50">
+        <v>150000</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="51" spans="15:19" x14ac:dyDescent="0.4">
+      <c r="P51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q51">
+        <v>150000</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19" x14ac:dyDescent="0.4">
+      <c r="P52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52">
+        <v>150000</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="53" spans="15:19" x14ac:dyDescent="0.4">
+      <c r="P53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q53">
+        <v>150000</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
     </row>
   </sheetData>
